--- a/Backend/SyntheticData.xlsx
+++ b/Backend/SyntheticData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coepac-my.sharepoint.com/personal/rujutaab21_comp_coeptech_ac_in/Documents/Projects/Hackathon-764/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackathon-764\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{555CB482-76B2-4C23-962E-A1D243E3FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F94CE75-0C3A-4E3A-AC80-1F75E4AE6047}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F7A91-8CF3-4554-AF4F-030CBA7419D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="10340" windowHeight="7180" xr2:uid="{4728C98E-AAC6-4D8D-917C-74B91C2B7A91}"/>
+    <workbookView xWindow="9690" yWindow="1020" windowWidth="9510" windowHeight="7180" xr2:uid="{4728C98E-AAC6-4D8D-917C-74B91C2B7A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Start</t>
   </si>
@@ -34,6 +34,156 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-08-06</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-30</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-08-12</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-08-14</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-10-09</t>
+  </si>
+  <si>
+    <t>2022-11-04</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
   </si>
 </sst>
 </file>
@@ -399,7 +549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4994DC-65F8-4B3C-BE36-55D9296FD27E}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="D1:D1048576 E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -422,275 +574,275 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44221</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44226</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>44248</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44254</v>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>44275</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44281</v>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>44301</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44306</v>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44334</v>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
-        <v>44357</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44363</v>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
-        <v>44385</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44390</v>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
-        <v>44414</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44420</v>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
-        <v>44443</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44449</v>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
-        <v>44473</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44479</v>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
-        <v>44502</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44508</v>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
-        <v>44528</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44533</v>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
-        <v>44554</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44559</v>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
-        <v>44584</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44589</v>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44618</v>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
-        <v>44642</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44647</v>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
-        <v>44668</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44673</v>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
-        <v>44698</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44703</v>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
-        <v>44728</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44733</v>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
-        <v>44755</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44760</v>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
-        <v>44781</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44787</v>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
-        <v>44811</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44816</v>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
-        <v>44837</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44843</v>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
-        <v>44864</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44869</v>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="1">
-        <v>44892</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44897</v>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
